--- a/concepts/fossil-fuels/input.xlsx
+++ b/concepts/fossil-fuels/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="114">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -177,6 +177,12 @@
     <t>gas</t>
   </si>
   <si>
+    <t>Fossil gas</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
     <t>Petroleum gas</t>
   </si>
   <si>
@@ -189,18 +195,27 @@
     <t>liquified</t>
   </si>
   <si>
-    <t>IS_UPPER</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>LPG</t>
   </si>
   <si>
     <t>GLP</t>
   </si>
   <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>Marine Gas Oil</t>
+  </si>
+  <si>
+    <t>MGO</t>
+  </si>
+  <si>
+    <t>Marine Diesel Oil</t>
+  </si>
+  <si>
+    <t>MDO</t>
+  </si>
+  <si>
     <t>gas-fired</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t>flared</t>
+  </si>
+  <si>
+    <t>fuels</t>
   </si>
   <si>
     <r>
@@ -314,6 +332,9 @@
   </si>
   <si>
     <t>IS_LOWER</t>
+  </si>
+  <si>
+    <t>IS_UPPER</t>
   </si>
   <si>
     <t>IS_TITLE</t>
@@ -1610,15 +1631,11 @@
         <v>19</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="M22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="11"/>
       <c r="Q22" s="13"/>
       <c r="S22" s="11"/>
@@ -1638,23 +1655,28 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="K23" s="11"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="Q23" s="13"/>
       <c r="S23" s="11"/>
@@ -1674,28 +1696,18 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="I24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I24" s="13"/>
       <c r="K24" s="11"/>
-      <c r="M24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="M24" s="13"/>
       <c r="O24" s="11"/>
       <c r="Q24" s="13"/>
       <c r="S24" s="11"/>
@@ -1721,18 +1733,22 @@
         <v>19</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="K25" s="11"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="Q25" s="13"/>
       <c r="S25" s="11"/>
@@ -1755,17 +1771,12 @@
         <v>60</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G26" s="11"/>
       <c r="I26" s="12"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
@@ -1789,35 +1800,20 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="I27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="M27" s="13"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="10"/>
       <c r="Q27" s="13"/>
       <c r="S27" s="11"/>
       <c r="U27" s="13"/>
@@ -1836,19 +1832,23 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G28" s="11"/>
-      <c r="I28" s="13"/>
-      <c r="K28" s="11"/>
-      <c r="M28" s="13"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="11"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="13"/>
       <c r="S28" s="11"/>
       <c r="U28" s="13"/>
@@ -1863,23 +1863,27 @@
     <row r="29">
       <c r="A29" s="14"/>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="I29" s="13"/>
-      <c r="K29" s="11"/>
-      <c r="M29" s="13"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="19"/>
       <c r="O29" s="11"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="13"/>
       <c r="S29" s="11"/>
       <c r="U29" s="13"/>
@@ -1894,25 +1898,27 @@
     <row r="30">
       <c r="A30" s="14"/>
       <c r="B30" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="10"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="11"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="13"/>
       <c r="S30" s="11"/>
       <c r="U30" s="13"/>
@@ -1927,25 +1933,39 @@
     <row r="31">
       <c r="A31" s="14"/>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>67</v>
+      <c r="F31" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="10"/>
+      <c r="I31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="O31" s="11"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="13"/>
       <c r="S31" s="11"/>
       <c r="U31" s="13"/>
@@ -1960,11 +1980,11 @@
     <row r="32">
       <c r="A32" s="14"/>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>19</v>
@@ -1973,24 +1993,9 @@
         <v>68</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="I32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="I32" s="13"/>
+      <c r="K32" s="11"/>
+      <c r="M32" s="13"/>
       <c r="O32" s="11"/>
       <c r="Q32" s="13"/>
       <c r="S32" s="11"/>
@@ -2006,24 +2011,22 @@
     <row r="33">
       <c r="A33" s="14"/>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="13"/>
       <c r="K33" s="11"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="10"/>
+      <c r="M33" s="13"/>
       <c r="O33" s="11"/>
       <c r="Q33" s="13"/>
       <c r="S33" s="11"/>
@@ -2039,7 +2042,7 @@
     <row r="34">
       <c r="A34" s="14"/>
       <c r="B34" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
@@ -2049,18 +2052,16 @@
         <v>19</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
       <c r="M34" s="12"/>
       <c r="N34" s="10"/>
       <c r="O34" s="11"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="10"/>
+      <c r="Q34" s="13"/>
       <c r="S34" s="11"/>
       <c r="U34" s="13"/>
       <c r="W34" s="11"/>
@@ -2074,28 +2075,26 @@
     <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G35" s="11"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
       <c r="M35" s="12"/>
       <c r="N35" s="10"/>
       <c r="O35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="10"/>
+      <c r="Q35" s="13"/>
       <c r="S35" s="11"/>
       <c r="U35" s="13"/>
       <c r="W35" s="11"/>
@@ -2109,17 +2108,17 @@
     <row r="36">
       <c r="A36" s="14"/>
       <c r="B36" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="G36" s="11"/>
       <c r="I36" s="16" t="s">
@@ -2137,16 +2136,11 @@
       <c r="M36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>74</v>
+      <c r="N36" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="O36" s="11"/>
-      <c r="Q36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q36" s="13"/>
       <c r="S36" s="11"/>
       <c r="U36" s="13"/>
       <c r="W36" s="11"/>
@@ -2160,17 +2154,17 @@
     <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G37" s="11"/>
       <c r="I37" s="12"/>
@@ -2193,40 +2187,28 @@
     <row r="38">
       <c r="A38" s="14"/>
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="I38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="13"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="10"/>
       <c r="S38" s="11"/>
       <c r="U38" s="13"/>
       <c r="W38" s="11"/>
@@ -2240,24 +2222,28 @@
     <row r="39">
       <c r="A39" s="14"/>
       <c r="B39" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="I39" s="13"/>
-      <c r="K39" s="11"/>
-      <c r="M39" s="13"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="11"/>
-      <c r="Q39" s="13"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="10"/>
       <c r="S39" s="11"/>
       <c r="U39" s="13"/>
       <c r="W39" s="11"/>
@@ -2271,24 +2257,44 @@
     <row r="40">
       <c r="A40" s="14"/>
       <c r="B40" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="I40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="Q40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="I40" s="13"/>
-      <c r="K40" s="11"/>
-      <c r="M40" s="13"/>
-      <c r="O40" s="11"/>
-      <c r="Q40" s="13"/>
       <c r="S40" s="11"/>
       <c r="U40" s="13"/>
       <c r="W40" s="11"/>
@@ -2302,22 +2308,24 @@
     <row r="41">
       <c r="A41" s="14"/>
       <c r="B41" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="11"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="11"/>
-      <c r="M41" s="13"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="10"/>
       <c r="O41" s="11"/>
       <c r="Q41" s="13"/>
       <c r="S41" s="11"/>
@@ -2329,6 +2337,222 @@
       <c r="AE41" s="11"/>
       <c r="AG41" s="13"/>
       <c r="AI41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="14"/>
+      <c r="B42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="I42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="13"/>
+      <c r="S42" s="11"/>
+      <c r="U42" s="13"/>
+      <c r="W42" s="11"/>
+      <c r="Y42" s="13"/>
+      <c r="AA42" s="11"/>
+      <c r="AC42" s="13"/>
+      <c r="AE42" s="11"/>
+      <c r="AG42" s="13"/>
+      <c r="AI42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="14"/>
+      <c r="B43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="I43" s="13"/>
+      <c r="K43" s="11"/>
+      <c r="M43" s="13"/>
+      <c r="O43" s="11"/>
+      <c r="Q43" s="13"/>
+      <c r="S43" s="11"/>
+      <c r="U43" s="13"/>
+      <c r="W43" s="11"/>
+      <c r="Y43" s="13"/>
+      <c r="AA43" s="11"/>
+      <c r="AC43" s="13"/>
+      <c r="AE43" s="11"/>
+      <c r="AG43" s="13"/>
+      <c r="AI43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="14"/>
+      <c r="B44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="I44" s="13"/>
+      <c r="K44" s="11"/>
+      <c r="M44" s="13"/>
+      <c r="O44" s="11"/>
+      <c r="Q44" s="13"/>
+      <c r="S44" s="11"/>
+      <c r="U44" s="13"/>
+      <c r="W44" s="11"/>
+      <c r="Y44" s="13"/>
+      <c r="AA44" s="11"/>
+      <c r="AC44" s="13"/>
+      <c r="AE44" s="11"/>
+      <c r="AG44" s="13"/>
+      <c r="AI44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="14"/>
+      <c r="B45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="I45" s="13"/>
+      <c r="K45" s="11"/>
+      <c r="M45" s="13"/>
+      <c r="O45" s="11"/>
+      <c r="Q45" s="13"/>
+      <c r="S45" s="11"/>
+      <c r="U45" s="13"/>
+      <c r="W45" s="11"/>
+      <c r="Y45" s="13"/>
+      <c r="AA45" s="11"/>
+      <c r="AC45" s="13"/>
+      <c r="AE45" s="11"/>
+      <c r="AG45" s="13"/>
+      <c r="AI45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="14"/>
+      <c r="B46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="I46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AI46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="14"/>
+      <c r="B47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="I47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AI47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2346,7 +2570,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O3:O14 E3:E41 G3:G41 I3:I41 K3:K41 M3:M41 O16:O41 Q3:Q41 S3:S41 U3:U41 W3:W41 Y3:Y41 AA3:AA41 AC3:AC41 AE3:AE41 AG3:AG41 AI3:AI41">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O3:O14 E3:E47 G3:G47 I3:I47 K3:K47 M3:M47 O16:O47 Q3:Q47 S3:S47 U3:U47 W3:W47 Y3:Y47 AA3:AA47 AC3:AC47 AE3:AE47 AG3:AG47 AI3:AI47">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -2366,7 +2590,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -2376,12 +2600,12 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -2391,97 +2615,97 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -2491,12 +2715,12 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -2506,7 +2730,7 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2756,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
